--- a/model/results/mix2_ggpos_h2pos/v_mix.xlsx
+++ b/model/results/mix2_ggpos_h2pos/v_mix.xlsx
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13987292.7499622</v>
+        <v>13987292.74996221</v>
       </c>
     </row>
     <row r="3">
@@ -596,7 +596,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>22292106.58072555</v>
+        <v>22292106.58072563</v>
       </c>
     </row>
     <row r="4">
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13987292.7499622</v>
+        <v>13987292.74996221</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13987292.7499622</v>
+        <v>13987292.74996221</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19792106.58072561</v>
+        <v>19792106.58072563</v>
       </c>
     </row>
     <row r="4">
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19792106.58072554</v>
+        <v>19792106.58072562</v>
       </c>
     </row>
     <row r="4">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14451405.06477702</v>
+        <v>14451405.06477703</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1164,10 +1164,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925919</v>
+        <v>500000.0000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14451405.06477702</v>
+        <v>14451405.06477703</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9449489.636281285</v>
+        <v>9449489.636281181</v>
       </c>
     </row>
     <row r="4">
@@ -1273,10 +1273,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925938</v>
+        <v>500000.0000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.700219490311363e-08</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14451405.06477702</v>
+        <v>14451405.06477703</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4449489.636281178</v>
+        <v>4449489.636281182</v>
       </c>
     </row>
     <row r="4">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925919</v>
+        <v>500000.0000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1408,7 +1408,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7500000</v>
+        <v>7499999.999999998</v>
       </c>
       <c r="C7" t="n">
         <v>15000000</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>14451405.06477702</v>
+        <v>14451405.06477703</v>
       </c>
     </row>
     <row r="3">
@@ -1491,10 +1491,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925938</v>
+        <v>500000.0000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.72350255467675e-08</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1520,7 +1520,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>19449489.63628122</v>
+        <v>19449489.63628118</v>
       </c>
     </row>
   </sheetData>
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925936</v>
+        <v>500000.0000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.839917876503684e-08</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1629,7 +1629,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>19449489.63628117</v>
+        <v>19449489.63628118</v>
       </c>
     </row>
   </sheetData>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9340137.074074073</v>
+        <v>9340137.074074075</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1615888.425925936</v>
+        <v>500000.0000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.863200940869071e-08</v>
+        <v>1115888.425925926</v>
       </c>
     </row>
     <row r="6">
@@ -1847,7 +1847,7 @@
         <v>7500000</v>
       </c>
       <c r="C7" t="n">
-        <v>19449489.63628117</v>
+        <v>19449489.63628118</v>
       </c>
     </row>
   </sheetData>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9340137.074074073</v>
+        <v>9340137.074074075</v>
       </c>
     </row>
     <row r="3">
@@ -1917,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777777</v>
+        <v>18922657.27777778</v>
       </c>
     </row>
     <row r="5">
@@ -1997,7 +1997,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9340137.074074073</v>
+        <v>9340137.074074075</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>18922657.27777777</v>
+        <v>18922657.27777778</v>
       </c>
     </row>
     <row r="5">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13195178.62518518</v>
+        <v>13195178.62518519</v>
       </c>
     </row>
     <row r="3">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>6615330.382222218</v>
+        <v>6615330.382222222</v>
       </c>
     </row>
     <row r="4">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12083802.66666667</v>
+        <v>12083802.66666668</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>13298704.05629629</v>
+        <v>13421333.77037037</v>
       </c>
     </row>
     <row r="3">
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>12724646.30666664</v>
+        <v>12908590.87777778</v>
       </c>
     </row>
     <row r="4">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>15822465.75555555</v>
+        <v>16742188.61111113</v>
       </c>
     </row>
     <row r="5">
@@ -2324,7 +2324,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13298704.05629629</v>
+        <v>13421333.77037037</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>14547076.8622222</v>
+        <v>18862618.65555556</v>
       </c>
     </row>
     <row r="4">
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14000035.2</v>
+        <v>10788160.83333336</v>
       </c>
     </row>
     <row r="5">
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13987292.7499622</v>
+        <v>13987292.74996221</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>21338078.80294782</v>
+        <v>21338078.80294785</v>
       </c>
     </row>
     <row r="4">
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>9052800.890022667</v>
+        <v>9052800.890022689</v>
       </c>
     </row>
     <row r="5">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13987292.7499622</v>
+        <v>13987292.74996221</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>27292106.5807256</v>
+        <v>27292106.58072565</v>
       </c>
     </row>
     <row r="4">
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3098773.112244896</v>
+        <v>3098773.112244899</v>
       </c>
     </row>
     <row r="5">
